--- a/external_validation/RIFAMPICIN_output.xlsx
+++ b/external_validation/RIFAMPICIN_output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Valid set" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Valid metric" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Valid set" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Valid metric" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1499,7 +1499,7 @@
         <v>0.36766762</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -28659,7 +28659,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9771704903283851</v>
+        <v>0.9769715215059344</v>
       </c>
     </row>
     <row r="3">
@@ -28679,7 +28679,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9941520467836257</v>
       </c>
     </row>
   </sheetData>
